--- a/InputData/bldgs/DSCF/Distributed Solar Cap Factor.xlsx
+++ b/InputData/bldgs/DSCF/Distributed Solar Cap Factor.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\Desktop\InputData INDIA FINAL backup 4-17 4pm\bldgs\DSCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\bldgs\DSCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F49136-7B21-43C3-9F08-DFF88AAFD3DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12090"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="India Data" sheetId="3" r:id="rId2"/>
-    <sheet name="DSCF" sheetId="2" r:id="rId3"/>
+    <sheet name="JNNSM Performance data" sheetId="4" r:id="rId3"/>
+    <sheet name="DSCF" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>DSCF Distributed Solar Capacity Factor</t>
   </si>
@@ -63,13 +73,183 @@
   </si>
   <si>
     <t>Tab IV.e</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>https://mnre.gov.in/file-manager/UserFiles/Performance-analysis-of-Grid-Connected-Solar-Power-Projects-Commissioned-under-Phase%20%e2%80%93I.pdf</t>
+  </si>
+  <si>
+    <t>CUF trajectories</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>For setting base year CUF in 2017, we refer to the performance analysis of grid-connected</t>
+  </si>
+  <si>
+    <t>The performance of plants varies by state, due to changes in resource quality and other factors.</t>
+  </si>
+  <si>
+    <t>2017 value in IESS.</t>
+  </si>
+  <si>
+    <t>In terms of scaling for 2050, we observe a faster improvement from 2017-19,</t>
+  </si>
+  <si>
+    <t>(based on normative CUF of 19%) in BAU policies, as compared to IESS projections</t>
+  </si>
+  <si>
+    <t>Ministry of New and Renewable Energy</t>
+  </si>
+  <si>
+    <t>https://bescom.org/wp-content/uploads/2018/06/OMNew-SRTPV-tariff-for-entering-into-PPAs-from-01.04.2018-to-31.03.2019.pdf</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Karnataka Normative CUF</t>
+  </si>
+  <si>
+    <t>Point 4, Page 9 of tariff order</t>
+  </si>
+  <si>
+    <t>Determination of Tariff &amp; other norms in respect of new solar power projects (ground mounted and solar rooftop PV units)</t>
+  </si>
+  <si>
+    <t>Karnataka Electricity Regulatory Commission</t>
+  </si>
+  <si>
+    <t>The recent state tariff orders for representative states with good quality solar resource use</t>
+  </si>
+  <si>
+    <t>a normative CUF of 19%.</t>
+  </si>
+  <si>
+    <t>http://www.tnerc.gov.in/orders/Tariff%20Order%202009/2019/Solar-5-29-03-2019.pdf</t>
+  </si>
+  <si>
+    <t>Tamilnadu Normative CUF</t>
+  </si>
+  <si>
+    <t>Tamil Nadu Electricity Regulatory Commission</t>
+  </si>
+  <si>
+    <t>Point 4, Page 48</t>
+  </si>
+  <si>
+    <t>Order on generic tariff for Solar power and related issues</t>
+  </si>
+  <si>
+    <t>Current (2019) normative CUFs specific to roopftop PV are not mentioned in CERC's tariff orders.</t>
+  </si>
+  <si>
+    <t>solar power projects under JNNSM, by MNRE in 2016. This is higher than</t>
+  </si>
+  <si>
+    <t>Month wise Average net exported solar power (KWh/MW) and CUF (%) for Phase-I</t>
+  </si>
+  <si>
+    <t>Source: MNRE</t>
+  </si>
+  <si>
+    <t>2020-2050</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Month
+(Jan 2014-Dec 2014)</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>CUF (%)Phase-I, Batch-I</t>
+  </si>
+  <si>
+    <t>CUF (%)Phase-I, Batch-II</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>we refer to the best CUF in Phase II of JNNSM as a maximum that is attainable in the model run.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is based on improvements observed in terms of moving towards optimal siting of the </t>
+  </si>
+  <si>
+    <t>CUF for base year and 2050</t>
+  </si>
+  <si>
+    <t>going to be built into the BAU scenario with increasing systems being deployed.</t>
+  </si>
+  <si>
+    <t>solar systems in the interest of economic attractiveness of the project (bulk of the Phase II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">projects are deployed in Rajasthan). We assume that this is an efficiency that is </t>
+  </si>
+  <si>
+    <t>Source: IESS v2, Tab IV.e</t>
+  </si>
+  <si>
+    <t>Improvement 
+(upto 2020)</t>
+  </si>
+  <si>
+    <t>Performance analysis of Grid Connected Solar Power projects commissioned under Phase –I of JNNSM</t>
+  </si>
+  <si>
+    <t>Avg (Batch I &amp; II)</t>
+  </si>
+  <si>
+    <t>which peak to 19% only by 2047. Hence, we improve the CUF to 19% by 2020. Beyond 2020,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +295,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +317,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -173,13 +379,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -215,6 +480,41 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -232,6 +532,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>145088</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B5336E0-CB17-4D06-B1B9-A8B264BB6286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="1143000"/>
+          <a:ext cx="6850688" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -310,6 +659,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -345,6 +711,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,64 +903,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="4" max="4" width="69" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="D5" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D7" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{A62E6FF4-296E-479E-B5ED-6AA7ED067DD4}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{36088C14-7AEC-4BFA-8ADD-EA755D477C8E}"/>
+    <hyperlink ref="D15" r:id="rId4" xr:uid="{80851780-316F-49F2-9CE5-1C338BAB7A6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -684,264 +1235,553 @@
         <v>0.19</v>
       </c>
     </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I6" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="24">
+        <v>2017</v>
+      </c>
+      <c r="L6" s="24">
+        <v>2020</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="24">
+        <v>2020</v>
+      </c>
+      <c r="O6" s="24">
+        <v>2050</v>
+      </c>
+    </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="25">
+        <f>B15</f>
+        <v>0.17907500000000001</v>
+      </c>
+      <c r="L7" s="25">
+        <f>E15</f>
+        <v>0.19</v>
+      </c>
+      <c r="M7" s="37"/>
+      <c r="N7" s="25">
+        <f>L7</f>
+        <v>0.19</v>
+      </c>
+      <c r="O7" s="25">
+        <f>'JNNSM Performance data'!C16/100</f>
+        <v>0.23670000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B14">
         <v>2017</v>
       </c>
-      <c r="C7">
+      <c r="C14">
         <v>2018</v>
       </c>
-      <c r="D7">
+      <c r="D14">
         <v>2019</v>
       </c>
-      <c r="E7">
+      <c r="E14">
         <v>2020</v>
       </c>
-      <c r="F7">
+      <c r="F14">
         <v>2021</v>
       </c>
-      <c r="G7">
+      <c r="G14">
         <v>2022</v>
       </c>
-      <c r="H7">
+      <c r="H14">
         <v>2023</v>
       </c>
-      <c r="I7">
+      <c r="I14">
         <v>2024</v>
       </c>
-      <c r="J7">
+      <c r="J14">
         <v>2025</v>
       </c>
-      <c r="K7">
+      <c r="K14">
         <v>2026</v>
       </c>
-      <c r="L7">
+      <c r="L14">
         <v>2027</v>
       </c>
-      <c r="M7">
+      <c r="M14">
         <v>2028</v>
       </c>
-      <c r="N7">
+      <c r="N14">
         <v>2029</v>
       </c>
-      <c r="O7">
+      <c r="O14">
         <v>2030</v>
       </c>
-      <c r="P7">
+      <c r="P14">
         <v>2031</v>
       </c>
-      <c r="Q7">
+      <c r="Q14">
         <v>2032</v>
       </c>
-      <c r="R7">
+      <c r="R14">
         <v>2033</v>
       </c>
-      <c r="S7">
+      <c r="S14">
         <v>2034</v>
       </c>
-      <c r="T7">
+      <c r="T14">
         <v>2035</v>
       </c>
-      <c r="U7">
+      <c r="U14">
         <v>2036</v>
       </c>
-      <c r="V7">
+      <c r="V14">
         <v>2037</v>
       </c>
-      <c r="W7">
+      <c r="W14">
         <v>2038</v>
       </c>
-      <c r="X7">
+      <c r="X14">
         <v>2039</v>
       </c>
-      <c r="Y7">
+      <c r="Y14">
         <v>2040</v>
       </c>
-      <c r="Z7">
+      <c r="Z14">
         <v>2041</v>
       </c>
-      <c r="AA7">
+      <c r="AA14">
         <v>2042</v>
       </c>
-      <c r="AB7">
+      <c r="AB14">
         <v>2043</v>
       </c>
-      <c r="AC7">
+      <c r="AC14">
         <v>2044</v>
       </c>
-      <c r="AD7">
+      <c r="AD14">
         <v>2045</v>
       </c>
-      <c r="AE7">
+      <c r="AE14">
         <v>2046</v>
       </c>
-      <c r="AF7">
+      <c r="AF14">
         <v>2047</v>
       </c>
-      <c r="AG7">
+      <c r="AG14">
         <v>2048</v>
       </c>
-      <c r="AH7">
+      <c r="AH14">
         <v>2049</v>
       </c>
-      <c r="AI7">
+      <c r="AI14">
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
-        <f>TREND($F4:$G4,$F$3:$G$3,B$7)</f>
-        <v>0.17000000000000004</v>
-      </c>
-      <c r="C8" s="14">
-        <f t="shared" ref="C8:G8" si="0">TREND($F4:$G4,$F$3:$G$3,C$7)</f>
-        <v>0.17049999999999998</v>
-      </c>
-      <c r="D8" s="14">
-        <f t="shared" si="0"/>
-        <v>0.17099999999999993</v>
-      </c>
-      <c r="E8" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1715000000000001</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
-        <v>0.17200000000000004</v>
-      </c>
-      <c r="G8" s="14">
-        <f t="shared" si="0"/>
-        <v>0.17249999999999999</v>
-      </c>
-      <c r="H8" s="14">
-        <f>TREND($G4:$H4,$G$3:$H$3,H$7)</f>
-        <v>0.17299999999999993</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" ref="I8:L8" si="1">TREND($G4:$H4,$G$3:$H$3,I$7)</f>
-        <v>0.17349999999999988</v>
-      </c>
-      <c r="J8" s="14">
-        <f t="shared" si="1"/>
-        <v>0.17399999999999982</v>
-      </c>
-      <c r="K8" s="14">
-        <f t="shared" si="1"/>
-        <v>0.17449999999999999</v>
-      </c>
-      <c r="L8" s="14">
-        <f t="shared" si="1"/>
-        <v>0.17499999999999993</v>
-      </c>
-      <c r="M8" s="14">
-        <f>TREND($H4:$I4,$H$3:$I$3,M$7)</f>
-        <v>0.17549999999999999</v>
-      </c>
-      <c r="N8" s="14">
-        <f t="shared" ref="N8:Q8" si="2">TREND($H4:$I4,$H$3:$I$3,N$7)</f>
-        <v>0.17599999999999993</v>
-      </c>
-      <c r="O8" s="14">
-        <f t="shared" si="2"/>
-        <v>0.1765000000000001</v>
-      </c>
-      <c r="P8" s="14">
-        <f t="shared" si="2"/>
-        <v>0.17700000000000005</v>
-      </c>
-      <c r="Q8" s="14">
-        <f t="shared" si="2"/>
-        <v>0.17749999999999999</v>
-      </c>
-      <c r="R8" s="14">
-        <f>TREND($I4:$J4,$I$3:$J$3,R$7)</f>
-        <v>0.17799999999999994</v>
-      </c>
-      <c r="S8" s="14">
-        <f t="shared" ref="S8:V8" si="3">TREND($I4:$J4,$I$3:$J$3,S$7)</f>
-        <v>0.1785000000000001</v>
-      </c>
-      <c r="T8" s="14">
-        <f t="shared" si="3"/>
-        <v>0.17900000000000005</v>
-      </c>
-      <c r="U8" s="14">
-        <f t="shared" si="3"/>
-        <v>0.17949999999999999</v>
-      </c>
-      <c r="V8" s="14">
-        <f t="shared" si="3"/>
-        <v>0.17999999999999994</v>
-      </c>
-      <c r="W8" s="14">
-        <f>TREND($J4:$K4,$J$3:$K$3,W$7)</f>
-        <v>0.18100000000000049</v>
-      </c>
-      <c r="X8" s="14">
-        <f t="shared" ref="X8:AA8" si="4">TREND($J4:$K4,$J$3:$K$3,X$7)</f>
-        <v>0.18200000000000038</v>
-      </c>
-      <c r="Y8" s="14">
-        <f t="shared" si="4"/>
-        <v>0.18300000000000027</v>
-      </c>
-      <c r="Z8" s="14">
-        <f t="shared" si="4"/>
-        <v>0.18400000000000016</v>
-      </c>
-      <c r="AA8" s="14">
-        <f t="shared" si="4"/>
-        <v>0.1850000000000005</v>
-      </c>
-      <c r="AB8" s="14">
-        <f>TREND($K4:$L4,$K$3:$L$3,AB$7)</f>
-        <v>0.18599999999999994</v>
-      </c>
-      <c r="AC8" s="14">
-        <f t="shared" ref="AC8:AI8" si="5">TREND($K4:$L4,$K$3:$L$3,AC$7)</f>
-        <v>0.18699999999999983</v>
-      </c>
-      <c r="AD8" s="14">
-        <f t="shared" si="5"/>
-        <v>0.18799999999999972</v>
-      </c>
-      <c r="AE8" s="14">
-        <f t="shared" si="5"/>
-        <v>0.18900000000000006</v>
-      </c>
-      <c r="AF8" s="14">
-        <f t="shared" si="5"/>
-        <v>0.18999999999999995</v>
-      </c>
-      <c r="AG8" s="14">
-        <f t="shared" si="5"/>
-        <v>0.19099999999999984</v>
-      </c>
-      <c r="AH8" s="14">
-        <f t="shared" si="5"/>
-        <v>0.19199999999999973</v>
-      </c>
-      <c r="AI8" s="14">
-        <f t="shared" si="5"/>
-        <v>0.19299999999999962</v>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B15" s="14">
+        <f>'JNNSM Performance data'!C17/100</f>
+        <v>0.17907500000000001</v>
+      </c>
+      <c r="C15" s="14">
+        <f>FORECAST(C14,K7:L7,K6:L6)</f>
+        <v>0.18271666666666686</v>
+      </c>
+      <c r="D15" s="14">
+        <f>FORECAST(D14,K7:L7,K6:L6)</f>
+        <v>0.18635833333333363</v>
+      </c>
+      <c r="E15" s="14">
+        <f>L4</f>
+        <v>0.19</v>
+      </c>
+      <c r="F15" s="14">
+        <f>FORECAST(F14,$N$7:$O$7,$N$6:$O$6)</f>
+        <v>0.1915566666666666</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" ref="G15:AI15" si="0">FORECAST(G14,$N$7:$O$7,$N$6:$O$6)</f>
+        <v>0.19311333333333325</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1946699999999999</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.19622666666666655</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1977833333333332</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.19933999999999985</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2008966666666665</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.20245333333333315</v>
+      </c>
+      <c r="N15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2040099999999998</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.20556666666666645</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2071233333333331</v>
+      </c>
+      <c r="Q15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.20867999999999975</v>
+      </c>
+      <c r="R15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.21023666666666641</v>
+      </c>
+      <c r="S15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.21179333333333306</v>
+      </c>
+      <c r="T15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.21335000000000015</v>
+      </c>
+      <c r="U15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2149066666666668</v>
+      </c>
+      <c r="V15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.21646333333333345</v>
+      </c>
+      <c r="W15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2180200000000001</v>
+      </c>
+      <c r="X15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.21957666666666675</v>
+      </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2211333333333334</v>
+      </c>
+      <c r="Z15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.22269000000000005</v>
+      </c>
+      <c r="AA15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.22424666666666671</v>
+      </c>
+      <c r="AB15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.22580333333333336</v>
+      </c>
+      <c r="AC15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.22736000000000001</v>
+      </c>
+      <c r="AD15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.22891666666666666</v>
+      </c>
+      <c r="AE15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.23047333333333331</v>
+      </c>
+      <c r="AF15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.23202999999999996</v>
+      </c>
+      <c r="AG15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.23358666666666661</v>
+      </c>
+      <c r="AH15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.23514333333333326</v>
+      </c>
+      <c r="AI15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.23669999999999991</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="M6:M7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718F635-41C3-4475-80AE-9F83A8174CA0}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>11.71</v>
+      </c>
+      <c r="C3">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="20">
+        <v>14.44</v>
+      </c>
+      <c r="C4">
+        <v>20.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="C5">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="C6">
+        <v>23.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>21.27</v>
+      </c>
+      <c r="C7">
+        <v>22.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>16.3</v>
+      </c>
+      <c r="C8">
+        <v>22.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>12.87</v>
+      </c>
+      <c r="C9">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>13.97</v>
+      </c>
+      <c r="C10">
+        <v>20.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>15.74</v>
+      </c>
+      <c r="C11">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>14.53</v>
+      </c>
+      <c r="C12">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>12.33</v>
+      </c>
+      <c r="C13">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>11.57</v>
+      </c>
+      <c r="C14">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="30">
+        <f>AVERAGE(B3:B14)</f>
+        <v>14.888333333333334</v>
+      </c>
+      <c r="C15" s="30">
+        <f>AVERAGE(C3:C14)</f>
+        <v>20.926666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="23">
+        <f>MAX(C3:C14)</f>
+        <v>23.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="32">
+        <f>AVERAGE(B15:C15)</f>
+        <v>17.907500000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1058,140 +1898,140 @@
         <v>2</v>
       </c>
       <c r="B2" s="15">
-        <f>'India Data'!B8</f>
-        <v>0.17000000000000004</v>
+        <f>'India Data'!B15</f>
+        <v>0.17907500000000001</v>
       </c>
       <c r="C2" s="15">
-        <f>'India Data'!C8</f>
-        <v>0.17049999999999998</v>
+        <f>'India Data'!C15</f>
+        <v>0.18271666666666686</v>
       </c>
       <c r="D2" s="15">
-        <f>'India Data'!D8</f>
-        <v>0.17099999999999993</v>
+        <f>'India Data'!D15</f>
+        <v>0.18635833333333363</v>
       </c>
       <c r="E2" s="15">
-        <f>'India Data'!E8</f>
-        <v>0.1715000000000001</v>
+        <f>'India Data'!E15</f>
+        <v>0.19</v>
       </c>
       <c r="F2" s="15">
-        <f>'India Data'!F8</f>
-        <v>0.17200000000000004</v>
+        <f>'India Data'!F15</f>
+        <v>0.1915566666666666</v>
       </c>
       <c r="G2" s="15">
-        <f>'India Data'!G8</f>
-        <v>0.17249999999999999</v>
+        <f>'India Data'!G15</f>
+        <v>0.19311333333333325</v>
       </c>
       <c r="H2" s="15">
-        <f>'India Data'!H8</f>
-        <v>0.17299999999999993</v>
+        <f>'India Data'!H15</f>
+        <v>0.1946699999999999</v>
       </c>
       <c r="I2" s="15">
-        <f>'India Data'!I8</f>
-        <v>0.17349999999999988</v>
+        <f>'India Data'!I15</f>
+        <v>0.19622666666666655</v>
       </c>
       <c r="J2" s="15">
-        <f>'India Data'!J8</f>
-        <v>0.17399999999999982</v>
+        <f>'India Data'!J15</f>
+        <v>0.1977833333333332</v>
       </c>
       <c r="K2" s="15">
-        <f>'India Data'!K8</f>
-        <v>0.17449999999999999</v>
+        <f>'India Data'!K15</f>
+        <v>0.19933999999999985</v>
       </c>
       <c r="L2" s="15">
-        <f>'India Data'!L8</f>
-        <v>0.17499999999999993</v>
+        <f>'India Data'!L15</f>
+        <v>0.2008966666666665</v>
       </c>
       <c r="M2" s="15">
-        <f>'India Data'!M8</f>
-        <v>0.17549999999999999</v>
+        <f>'India Data'!M15</f>
+        <v>0.20245333333333315</v>
       </c>
       <c r="N2" s="15">
-        <f>'India Data'!N8</f>
-        <v>0.17599999999999993</v>
+        <f>'India Data'!N15</f>
+        <v>0.2040099999999998</v>
       </c>
       <c r="O2" s="15">
-        <f>'India Data'!O8</f>
-        <v>0.1765000000000001</v>
+        <f>'India Data'!O15</f>
+        <v>0.20556666666666645</v>
       </c>
       <c r="P2" s="15">
-        <f>'India Data'!P8</f>
-        <v>0.17700000000000005</v>
+        <f>'India Data'!P15</f>
+        <v>0.2071233333333331</v>
       </c>
       <c r="Q2" s="15">
-        <f>'India Data'!Q8</f>
-        <v>0.17749999999999999</v>
+        <f>'India Data'!Q15</f>
+        <v>0.20867999999999975</v>
       </c>
       <c r="R2" s="15">
-        <f>'India Data'!R8</f>
-        <v>0.17799999999999994</v>
+        <f>'India Data'!R15</f>
+        <v>0.21023666666666641</v>
       </c>
       <c r="S2" s="15">
-        <f>'India Data'!S8</f>
-        <v>0.1785000000000001</v>
+        <f>'India Data'!S15</f>
+        <v>0.21179333333333306</v>
       </c>
       <c r="T2" s="15">
-        <f>'India Data'!T8</f>
-        <v>0.17900000000000005</v>
+        <f>'India Data'!T15</f>
+        <v>0.21335000000000015</v>
       </c>
       <c r="U2" s="15">
-        <f>'India Data'!U8</f>
-        <v>0.17949999999999999</v>
+        <f>'India Data'!U15</f>
+        <v>0.2149066666666668</v>
       </c>
       <c r="V2" s="15">
-        <f>'India Data'!V8</f>
-        <v>0.17999999999999994</v>
+        <f>'India Data'!V15</f>
+        <v>0.21646333333333345</v>
       </c>
       <c r="W2" s="15">
-        <f>'India Data'!W8</f>
-        <v>0.18100000000000049</v>
+        <f>'India Data'!W15</f>
+        <v>0.2180200000000001</v>
       </c>
       <c r="X2" s="15">
-        <f>'India Data'!X8</f>
-        <v>0.18200000000000038</v>
+        <f>'India Data'!X15</f>
+        <v>0.21957666666666675</v>
       </c>
       <c r="Y2" s="15">
-        <f>'India Data'!Y8</f>
-        <v>0.18300000000000027</v>
+        <f>'India Data'!Y15</f>
+        <v>0.2211333333333334</v>
       </c>
       <c r="Z2" s="15">
-        <f>'India Data'!Z8</f>
-        <v>0.18400000000000016</v>
+        <f>'India Data'!Z15</f>
+        <v>0.22269000000000005</v>
       </c>
       <c r="AA2" s="15">
-        <f>'India Data'!AA8</f>
-        <v>0.1850000000000005</v>
+        <f>'India Data'!AA15</f>
+        <v>0.22424666666666671</v>
       </c>
       <c r="AB2" s="15">
-        <f>'India Data'!AB8</f>
-        <v>0.18599999999999994</v>
+        <f>'India Data'!AB15</f>
+        <v>0.22580333333333336</v>
       </c>
       <c r="AC2" s="15">
-        <f>'India Data'!AC8</f>
-        <v>0.18699999999999983</v>
+        <f>'India Data'!AC15</f>
+        <v>0.22736000000000001</v>
       </c>
       <c r="AD2" s="15">
-        <f>'India Data'!AD8</f>
-        <v>0.18799999999999972</v>
+        <f>'India Data'!AD15</f>
+        <v>0.22891666666666666</v>
       </c>
       <c r="AE2" s="15">
-        <f>'India Data'!AE8</f>
-        <v>0.18900000000000006</v>
+        <f>'India Data'!AE15</f>
+        <v>0.23047333333333331</v>
       </c>
       <c r="AF2" s="15">
-        <f>'India Data'!AF8</f>
-        <v>0.18999999999999995</v>
+        <f>'India Data'!AF15</f>
+        <v>0.23202999999999996</v>
       </c>
       <c r="AG2" s="15">
-        <f>'India Data'!AG8</f>
-        <v>0.19099999999999984</v>
+        <f>'India Data'!AG15</f>
+        <v>0.23358666666666661</v>
       </c>
       <c r="AH2" s="15">
-        <f>'India Data'!AH8</f>
-        <v>0.19199999999999973</v>
+        <f>'India Data'!AH15</f>
+        <v>0.23514333333333326</v>
       </c>
       <c r="AI2" s="15">
-        <f>'India Data'!AI8</f>
-        <v>0.19299999999999962</v>
+        <f>'India Data'!AI15</f>
+        <v>0.23669999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/bldgs/DSCF/Distributed Solar Cap Factor.xlsx
+++ b/InputData/bldgs/DSCF/Distributed Solar Cap Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\bldgs\DSCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Downloads\eps-india-3.1.3.4 - LG\eps-india-3.1.3.4\InputData - LG\bldgs\DSCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F49136-7B21-43C3-9F08-DFF88AAFD3DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92BDF618-0090-451D-9ADD-F2C2904CD0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -906,22 +909,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="2" max="2" width="62.26953125" customWidth="1"/>
     <col min="4" max="4" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -932,7 +935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -940,7 +943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2015</v>
       </c>
@@ -948,7 +951,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -956,7 +959,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
@@ -964,7 +967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -972,7 +975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="s">
         <v>26</v>
       </c>
@@ -980,7 +983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -988,7 +991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>2018</v>
       </c>
@@ -996,7 +999,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
         <v>28</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>24</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -1020,85 +1023,85 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -1120,18 +1123,18 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E4" sqref="E4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1147,7 +1150,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1161,7 +1164,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -1235,13 +1238,13 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>64</v>
       </c>
       <c r="N5" s="19"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="I6" s="33" t="s">
         <v>65</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="26"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -1290,20 +1293,20 @@
         <v>0.23670000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B10" s="20"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="22"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B15" s="14">
         <f>'JNNSM Performance data'!C17/100</f>
         <v>0.17907500000000001</v>
@@ -1561,17 +1564,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718F635-41C3-4475-80AE-9F83A8174CA0}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>39</v>
       </c>
@@ -1582,7 +1585,7 @@
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>47</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>17.95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>20.67</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>22.54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>23.67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>22.63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>20.71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>18.489999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>20.926666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>23.67</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -1756,12 +1759,12 @@
         <v>17.907500000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>25</v>
       </c>
@@ -1783,13 +1786,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>2017</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
